--- a/input/dsl.4/data.input.xlsx
+++ b/input/dsl.4/data.input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4393269-E872-4A3A-A025-88FF8E192A1A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC3FF6-3896-4AAB-8C8D-92AADF25A780}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>wave.length</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>deviaton</t>
   </si>
 </sst>
 </file>
@@ -1088,151 +1100,205 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
         <v>0.83799999999999997</v>
       </c>
-      <c r="B1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C1">
+      <c r="D2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F2">
+        <v>1.034</v>
+      </c>
+      <c r="G2">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="J2">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="K2">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="L2">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
         <v>0.503</v>
       </c>
-      <c r="D1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="B2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C2">
+      <c r="D3">
         <v>0.73</v>
       </c>
-      <c r="D2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="B3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C3">
+      <c r="E3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="D3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.034</v>
+      <c r="F3">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1.387</v>
+      </c>
+      <c r="H3">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.774</v>
+      </c>
+      <c r="J3">
+        <v>1.923</v>
+      </c>
+      <c r="K3">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="L3">
+        <v>2.1469999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>3.0000000000000001E-3</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>1.1870000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D4">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.1060000000000001</v>
+      <c r="E4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>3.0000000000000001E-3</v>
+        <v>300</v>
       </c>
       <c r="C5">
-        <v>1.387</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D5">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="B6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C6">
-        <v>1.5920000000000001</v>
-      </c>
-      <c r="D6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="B7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C7">
-        <v>1.774</v>
-      </c>
-      <c r="D7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="B8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C8">
-        <v>1.923</v>
-      </c>
-      <c r="D8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="B9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C9">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="D9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="B10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C10">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="D10">
+      <c r="E5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -1243,33 +1309,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
         <v>4400</v>
       </c>
-      <c r="C1">
+      <c r="C2">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>5012</v>
-      </c>
-      <c r="C2">
+      <c r="C3">
         <v>1946</v>
       </c>
     </row>
@@ -1282,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72735CB-A497-44A7-BD47-EF14B8B7867F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/input/dsl.4/data.input.xlsx
+++ b/input/dsl.4/data.input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC3FF6-3896-4AAB-8C8D-92AADF25A780}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6E662-F16E-48AB-BCB9-35EA8083E15E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>wave.length</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>deviaton</t>
+  </si>
+  <si>
+    <t>wavelength</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,10 +1114,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>300</v>
@@ -1311,13 +1311,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
